--- a/resource/formula_add_products.xlsx
+++ b/resource/formula_add_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\zinkorra\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350D42A1-A3FF-4CBA-A58C-440A09C1F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4968398-F1B2-4B38-98D6-87C277906904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66F81361-4791-4638-AACA-A763371EDF70}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Phòng khách</t>
   </si>
@@ -117,13 +117,181 @@
   </si>
   <si>
     <t>Đèn Thả ECODL3 Trắng</t>
+  </si>
+  <si>
+    <t>Bàn tròn KDHV645 (trắng)</t>
+  </si>
+  <si>
+    <t>41.png</t>
+  </si>
+  <si>
+    <t>42.png</t>
+  </si>
+  <si>
+    <t>43.png</t>
+  </si>
+  <si>
+    <t>44.png</t>
+  </si>
+  <si>
+    <t>45.png</t>
+  </si>
+  <si>
+    <t>46.png</t>
+  </si>
+  <si>
+    <t>47.png</t>
+  </si>
+  <si>
+    <t>48.png</t>
+  </si>
+  <si>
+    <t>49.png</t>
+  </si>
+  <si>
+    <t>50.png</t>
+  </si>
+  <si>
+    <t>51.png</t>
+  </si>
+  <si>
+    <t>52.png</t>
+  </si>
+  <si>
+    <t>53.png</t>
+  </si>
+  <si>
+    <t>54.png</t>
+  </si>
+  <si>
+    <t>Bàn trà, bàn sofa mặt đá mẫu hoa mai trang trí</t>
+  </si>
+  <si>
+    <t>BÀN SOFA gỗ 2 tầng để phòng khách</t>
+  </si>
+  <si>
+    <t>Ghế văn phòng hội trường hội nghị gấp gọn</t>
+  </si>
+  <si>
+    <t>Ghế văn phòng hội trường hội nghị gấp gọn YiCun</t>
+  </si>
+  <si>
+    <t>Ghế Sofa Giường Gấp Gọn Có Khóa Kéo Vệ Sinh, Sofa Giường Gấp 2 Trong 1</t>
+  </si>
+  <si>
+    <t>Ghế Sofa Giường Đa Năng GỖ XANH - Sofa Bed Chính Hãng Serta Xuất Mỹ</t>
+  </si>
+  <si>
+    <t>Bộ ghế KHB211</t>
+  </si>
+  <si>
+    <t>55.png</t>
+  </si>
+  <si>
+    <t>56.png</t>
+  </si>
+  <si>
+    <t>57.png</t>
+  </si>
+  <si>
+    <t>Tủ áo cánh lùa, tủ gỗ đa năng TG243</t>
+  </si>
+  <si>
+    <t>Tủ treo quần áo decor, tủ gỗ lắp ráp 2 cánh</t>
+  </si>
+  <si>
+    <t>Tủ Gỗ Đa Năng Tủ Đựng Quần Áo Chất Liệu MDF Phong Cách Hiện Đại - TU2</t>
+  </si>
+  <si>
+    <t>58.png</t>
+  </si>
+  <si>
+    <t>59.png</t>
+  </si>
+  <si>
+    <t>60.png</t>
+  </si>
+  <si>
+    <t>61.png</t>
+  </si>
+  <si>
+    <t>62.png</t>
+  </si>
+  <si>
+    <t>63.png</t>
+  </si>
+  <si>
+    <t>64.png</t>
+  </si>
+  <si>
+    <t>65.png</t>
+  </si>
+  <si>
+    <t>66.png</t>
+  </si>
+  <si>
+    <t>Tủ nhựa 2 cánh 4 ngăn Happy Family SUNHOUSE KS-CA1400F4</t>
+  </si>
+  <si>
+    <t>Giường ngủ ZAKO cao cấp kiểu Nhật OHAHA001- Gỗ công nghiệp HMR lõi xanh chuẩn E1</t>
+  </si>
+  <si>
+    <t>Giường ngủ gỗ Công Nghiệp Cao Cấp OHAHA 002 - Màu trắng</t>
+  </si>
+  <si>
+    <t>Giường Ngủ Cao Cấp 2 Tủ Ngăn Kéo Yapi -506</t>
+  </si>
+  <si>
+    <t>Giường ngủ thông minh ngăn kéo chứa đồ tiết kiệm diện tích thương hiệu IGA GP239</t>
+  </si>
+  <si>
+    <t>Nệm Topper Đệm Bông Trải Sàn FUKOJI </t>
+  </si>
+  <si>
+    <t>Nệm Foam Nooz Home Goods Mattress Tiêu Chuẩn CertiPUR-US</t>
+  </si>
+  <si>
+    <t>Bộ bàn ăn FUNHOUSE 4 ghế thông minh kết hợp với bếp từ mặt đá ceramic</t>
+  </si>
+  <si>
+    <t>Tủ bếp công nghiệp hiện đại KIT_014</t>
+  </si>
+  <si>
+    <t>Tủ Bếp Nhựa Đài Loan Và Vincoplast</t>
+  </si>
+  <si>
+    <t>Tủ Bếp Hiện Đại Nhựa Đài Loan ENC</t>
+  </si>
+  <si>
+    <t>Ghế quầy bar đẹp nhập khẩu hiện đại TM292</t>
+  </si>
+  <si>
+    <t>Ghế đôn chân sắt mặt đệm màu xám - GM78</t>
+  </si>
+  <si>
+    <t>Tủ bếp để sàn ,Tủ đựng đồ Đa Năng - Gỗ MDF KIKO TB 1001</t>
+  </si>
+  <si>
+    <t>Tủ bếp Đặt Sàn Cánh Kính ,Tủ đựng đồ Đa Năng - Gỗ MDF KIKO TB 940</t>
+  </si>
+  <si>
+    <t>Bộ Nhả Kem Tự Động, Kệ Để Cốc Bàn Chải Đánh Răng Nhà Tắm Lắp Đặt Dính Tường OENON</t>
+  </si>
+  <si>
+    <t>Tủ Đựng Mỹ Phẩm Đa Năng Dán Tường Phòng Tắm 3635</t>
+  </si>
+  <si>
+    <t>Ghế dã ngoại gấp gọn, ghế xếp camping, cắm trại</t>
+  </si>
+  <si>
+    <t>Thảm Đi Picnic Họa Tiết Hoa Chống Thấm Nước Tiện Lợi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +316,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -178,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -188,6 +362,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,7 +445,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBCF06D-BED2-5336-6969-A96F7AB647DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -316,7 +491,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4D3C5A-5362-B361-6377-E04B47657E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -378,7 +553,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F49EC95-87F0-7149-0AA5-C4B5A9FBBD78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -440,7 +615,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A823BB-56EE-9C36-73BA-AD2551B1715D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -506,7 +681,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E916A67-DB62-5A0A-A649-B04DB934BDCD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -552,7 +727,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8CCD89-D0D5-7595-A143-74BE657BC1A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -614,7 +789,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4121E2-5131-1289-DD26-191DEE3000B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -676,7 +851,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E77BB1-D236-6AD2-0905-C70CDB4DAB1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,7 +917,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36BF95B-5B96-2071-5AB2-76032D35266B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -788,7 +963,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0BE27E-1FE6-EB42-2FAB-D5DD6CD9A0EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -850,7 +1025,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771E88DF-1CD9-E056-5926-841B00527C6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -912,7 +1087,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA0C372-F8D4-D11C-66FA-BDDAF0CA4FFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,7 +1153,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C937201B-0AE1-4AB8-FAB1-7DD5EF65A4B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1024,7 +1199,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876F6262-B509-D6EE-FE4D-26DC0483C133}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1261,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA838AC-F4BF-3685-B5EA-8B9C17F819C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1323,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10592B51-B211-9E13-C017-CF12E04A76CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1389,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C423F0-1B81-D395-4A01-FB744C467297}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1260,7 +1435,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B0DAC7-62D4-3F67-B050-6E4A11F71BA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1497,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C879B3-8339-8A18-F9B6-18F554DC0A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1559,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C87ECC-234A-FDE9-FB84-2717BD12F20D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1625,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21333B0-FFFB-F74C-9507-D65DC954CD84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1496,7 +1671,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7414DCC4-C050-36A3-C982-44B247D15376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1733,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D074387D-B437-7D96-0E37-F7DE54832BEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1795,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC1EF4E-B71F-BC46-E2BE-B536DE0E40DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1861,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE5B428-6A85-8C49-63F7-7D91609D6C4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1732,7 +1907,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F99B4C-A078-75AC-B606-46203DFF3BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1969,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB03FB3C-3D81-97C1-E37F-64BF3BC23218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +2031,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF5259D-0D18-7651-AB97-4077FD88BF86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +2097,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030F218A-3D37-2968-A8DA-ACF8BE8421A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1968,7 +2143,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CE76BD-4425-281B-4BF0-05201552E407}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2205,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3870310F-2916-369F-D5B3-97D3F7AB2C07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2267,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E78DCC-B26C-EE2B-FA31-8DECDB6D458D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2333,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBB367C-829A-E219-8CF5-C4D149C3A161}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2204,7 +2379,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEAA984-AC14-BAB4-67BB-17DAC2B5638E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2441,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72BF729-3CF2-700C-ADF8-1111F27A435E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +2503,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D3774B-4236-0ECE-EBFF-FD7FDF29D44A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2569,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E705D6-1414-15DD-28C8-04508314374F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2440,7 +2615,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1857F3BE-06FB-9C72-C2FA-A8EFDEF4CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2677,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BE108C-42F6-E19B-F09A-6E71DEA55C8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2739,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43B32DB-3283-4516-1793-63323CB5A49A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,16 +3083,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09816752-B5C5-470C-84BC-473DFA7360AC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="84.625" customWidth="1"/>
+    <col min="4" max="4" width="91.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3059,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ref="I12:I25" si="1">"INSERT INTO `products` VALUES ("&amp;A12&amp;","&amp;B12&amp;","&amp;C12&amp;",'"&amp;D12&amp;"',"&amp;E12&amp;",'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','"&amp;F12&amp;"',"&amp;G12&amp;");"</f>
+        <f t="shared" ref="I12:I56" si="1">"INSERT INTO `products` VALUES ("&amp;A12&amp;","&amp;B12&amp;","&amp;C12&amp;",'"&amp;D12&amp;"',"&amp;E12&amp;",'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','"&amp;F12&amp;"',"&amp;G12&amp;");"</f>
         <v>INSERT INTO `products` VALUES (27,1,1,'Bộ Bàn Coffee 291',2890000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','27.png',10);</v>
       </c>
     </row>
@@ -3425,6 +3600,823 @@
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO `products` VALUES (40,5,7,'Đèn Thả ECODL3 Trắng',499000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','40.png',10);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3500000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (41,1,1,'Bàn tròn KDHV645 (trắng)',3500000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','41.png',10);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>3850000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (42,1,1,'BÀN SOFA gỗ 2 tầng để phòng khách',3850000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','42.png',10);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>4700000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (43,1,1,'Bàn trà, bàn sofa mặt đá mẫu hoa mai trang trí',4700000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','43.png',10);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>665000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (44,1,2,'Ghế văn phòng hội trường hội nghị gấp gọn YiCun',665000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','44.png',10);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>345000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (45,1,2,'Ghế văn phòng hội trường hội nghị gấp gọn',345000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','45.png',10);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32">
+        <v>3100000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (46,1,2,'Ghế Sofa Giường Gấp Gọn Có Khóa Kéo Vệ Sinh, Sofa Giường Gấp 2 Trong 1',3100000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','46.png',10);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>2300000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (47,1,2,'Ghế Sofa Giường Đa Năng GỖ XANH - Sofa Bed Chính Hãng Serta Xuất Mỹ',2300000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','47.png',10);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <v>12580000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (48,1,2,'Bộ ghế KHB211',12580000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','48.png',10);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <v>14560000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (49,2,3,'Tủ áo cánh lùa, tủ gỗ đa năng TG243',14560000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','49.png',5);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36">
+        <v>995000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (50,2,3,'Tủ treo quần áo decor, tủ gỗ lắp ráp 2 cánh',995000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','50.png',10);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37">
+        <v>450000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (51,2,3,'Tủ Gỗ Đa Năng Tủ Đựng Quần Áo Chất Liệu MDF Phong Cách Hiện Đại - TU2',450000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','51.png',10);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38">
+        <v>1550000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (52,2,3,'Tủ nhựa 2 cánh 4 ngăn Happy Family SUNHOUSE KS-CA1400F4',1550000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','52.png',10);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39">
+        <v>6750000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (53,2,4,'Giường ngủ ZAKO cao cấp kiểu Nhật OHAHA001- Gỗ công nghiệp HMR lõi xanh chuẩn E1',6750000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','53.png',5);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40">
+        <v>6550000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (54,2,4,'Giường ngủ gỗ Công Nghiệp Cao Cấp OHAHA 002 - Màu trắng',6550000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','54.png',7);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41">
+        <v>7520000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (55,2,4,'Giường Ngủ Cao Cấp 2 Tủ Ngăn Kéo Yapi -506',7520000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','55.png',10);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42">
+        <v>3500000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (56,2,4,'Giường ngủ thông minh ngăn kéo chứa đồ tiết kiệm diện tích thương hiệu IGA GP239',3500000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','56.png',5);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>750000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (57,2,5,'Nệm Topper Đệm Bông Trải Sàn FUKOJI ',750000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','57.png',15);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>6350000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (58,2,5,'Nệm Foam Nooz Home Goods Mattress Tiêu Chuẩn CertiPUR-US',6350000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','58.png',10);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>11500000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (59,3,1,'Bộ bàn ăn FUNHOUSE 4 ghế thông minh kết hợp với bếp từ mặt đá ceramic',11500000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','59.png',5);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>24500000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (60,3,3,'Tủ bếp công nghiệp hiện đại KIT_014',24500000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','60.png',4);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47">
+        <v>2150000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (61,3,3,'Tủ Bếp Nhựa Đài Loan Và Vincoplast',2150000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','61.png',4);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48">
+        <v>1950000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (62,3,3,'Tủ Bếp Hiện Đại Nhựa Đài Loan ENC',1950000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','62.png',5);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49">
+        <v>1100000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (63,3,2,'Ghế quầy bar đẹp nhập khẩu hiện đại TM292',1100000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','63.png',5);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50">
+        <v>730000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (64,3,2,'Ghế đôn chân sắt mặt đệm màu xám - GM78',730000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','64.png',7);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51">
+        <v>4550000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (65,3,3,'Tủ bếp Đặt Sàn Cánh Kính ,Tủ đựng đồ Đa Năng - Gỗ MDF KIKO TB 940',4550000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','65.png',5);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52">
+        <v>3550000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (66,3,3,'Tủ bếp để sàn ,Tủ đựng đồ Đa Năng - Gỗ MDF KIKO TB 1001',3550000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','66.png',7);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53">
+        <v>269000</v>
+      </c>
+      <c r="F53" t="str">
+        <f>A53&amp;".png"</f>
+        <v>67.png</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (67,4,6,'Bộ Nhả Kem Tự Động, Kệ Để Cốc Bàn Chải Đánh Răng Nhà Tắm Lắp Đặt Dính Tường OENON',269000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','67.png',10);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54">
+        <v>175000</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" ref="F54:F56" si="2">A54&amp;".png"</f>
+        <v>68.png</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (68,4,6,'Tủ Đựng Mỹ Phẩm Đa Năng Dán Tường Phòng Tắm 3635',175000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','68.png',10);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55">
+        <v>195000</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="2"/>
+        <v>69.png</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (69,5,2,'Ghế dã ngoại gấp gọn, ghế xếp camping, cắm trại',195000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','69.png',15);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56">
+        <v>125000</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="2"/>
+        <v>70.png</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `products` VALUES (70,5,7,'Thảm Đi Picnic Họa Tiết Hoa Chống Thấm Nước Tiện Lợi',125000,'Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry standard dummy text ever since the 1500s','70.png',15);</v>
       </c>
     </row>
   </sheetData>
@@ -3435,19 +4427,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId4" name="Control 37">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
@@ -3455,47 +4447,72 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId4" name="Control 37"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId6" name="Control 33">
+        <control shapeId="1029" r:id="rId6" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId6" name="Control 33"/>
+        <control shapeId="1029" r:id="rId6" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId7" name="Control 29">
+        <control shapeId="1033" r:id="rId7" name="Control 9">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId7" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId8" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
@@ -3505,57 +4522,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId7" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId8" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId8" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId9" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId9" name="Control 21"/>
+        <control shapeId="1037" r:id="rId8" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3585,17 +4552,67 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId11" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId12">
+        <control shapeId="1045" r:id="rId11" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId11" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId12" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId12" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId13" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
@@ -3605,24 +4622,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId11" name="Control 13"/>
+        <control shapeId="1053" r:id="rId13" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId13" name="Control 9">
+        <control shapeId="1057" r:id="rId14" name="Control 33">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId14" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId15" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
@@ -3630,57 +4672,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId14" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId14" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId15" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId15" name="Control 1"/>
+        <control shapeId="1061" r:id="rId15" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
